--- a/applications/SHIELD/Documentation/Syphilis Manager Data Overview_11.10.25.xlsx
+++ b/applications/SHIELD/Documentation/Syphilis Manager Data Overview_11.10.25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejohnshopkins-my.sharepoint.com/personal/zdansky1_jh_edu/Documents/Documents/JHEEM/code/jheem_analyses/applications/SHIELD/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1153" documentId="13_ncr:1_{460D6CD4-A812-4C2E-A51F-0C846BEEF02B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97C002E7-88BE-4BBB-BEF4-7AC4BA07C68D}"/>
+  <xr:revisionPtr revIDLastSave="1164" documentId="13_ncr:1_{460D6CD4-A812-4C2E-A51F-0C846BEEF02B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1088B119-DC9A-4EDC-AE83-D7C7AB9847B0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1458,11 +1458,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:M118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1523,7 +1524,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="B2" s="12" t="s">
         <v>13</v>
@@ -1559,7 +1560,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="60.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="12" t="s">
         <v>13</v>
@@ -1595,7 +1596,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="12" t="s">
         <v>13</v>
@@ -1631,7 +1632,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="12" t="s">
         <v>13</v>
@@ -1667,7 +1668,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="12" t="s">
         <v>13</v>
@@ -1700,7 +1701,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="30.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="12" t="s">
         <v>13</v>
@@ -1739,7 +1740,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="12" t="s">
         <v>13</v>
@@ -1778,7 +1779,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="12" t="s">
         <v>13</v>
@@ -1811,7 +1812,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="60.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="12" t="s">
         <v>13</v>
@@ -1847,7 +1848,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="15" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="12" t="s">
         <v>13</v>
@@ -1883,7 +1884,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="12" t="s">
         <v>13</v>
@@ -1916,7 +1917,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="12" t="s">
         <v>13</v>
@@ -1952,7 +1953,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="12" t="s">
         <v>13</v>
@@ -1988,7 +1989,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="12" t="s">
         <v>13</v>
@@ -2024,7 +2025,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="12" t="s">
         <v>13</v>
@@ -2057,7 +2058,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="12" t="s">
         <v>13</v>
@@ -2093,7 +2094,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="12" t="s">
         <v>13</v>
@@ -2120,7 +2121,7 @@
         <v>55</v>
       </c>
       <c r="J18" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="K18" t="s">
         <v>22</v>
@@ -2129,7 +2130,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="12" t="s">
         <v>13</v>
@@ -2165,7 +2166,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>60</v>
       </c>
@@ -2203,7 +2204,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="12" t="s">
         <v>13</v>
@@ -2236,7 +2237,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="12" t="s">
         <v>13</v>
@@ -2269,7 +2270,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="12" t="s">
         <v>13</v>
@@ -2305,7 +2306,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="12" t="s">
         <v>13</v>
@@ -2335,7 +2336,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="45.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="12" t="s">
         <v>13</v>
@@ -2374,7 +2375,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="45.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="12" t="s">
         <v>13</v>
@@ -2413,7 +2414,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="45.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="12" t="s">
         <v>13</v>
@@ -2452,7 +2453,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="45.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="12" t="s">
         <v>13</v>
@@ -2488,7 +2489,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="12" t="s">
         <v>13</v>
@@ -2518,7 +2519,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="12" t="s">
         <v>13</v>
@@ -2548,7 +2549,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="12" t="s">
         <v>13</v>
@@ -2587,7 +2588,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="12" t="s">
         <v>13</v>
@@ -2623,7 +2624,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="12" t="s">
         <v>13</v>
@@ -2659,7 +2660,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="30.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="12" t="s">
         <v>13</v>
@@ -2695,7 +2696,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="15.75" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="12" t="s">
         <v>13</v>
@@ -2728,7 +2729,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" s="16" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A36" s="33" t="s">
         <v>83</v>
       </c>
@@ -3129,7 +3130,7 @@
       </c>
       <c r="M46" s="13"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="33"/>
       <c r="B47" s="15" t="s">
         <v>84</v>
@@ -3162,7 +3163,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="33"/>
       <c r="B48" s="15" t="s">
         <v>84</v>
@@ -3195,7 +3196,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="33"/>
       <c r="B49" s="15" t="s">
         <v>84</v>
@@ -3228,7 +3229,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="33"/>
       <c r="B50" s="15" t="s">
         <v>84</v>
@@ -3261,7 +3262,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="33"/>
       <c r="B51" s="15" t="s">
         <v>84</v>
@@ -3294,7 +3295,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="33"/>
       <c r="B52" s="15" t="s">
         <v>84</v>
@@ -3327,7 +3328,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="33"/>
       <c r="B53" s="15" t="s">
         <v>84</v>
@@ -3360,7 +3361,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="33"/>
       <c r="B54" s="15" t="s">
         <v>84</v>
@@ -3396,7 +3397,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="33"/>
       <c r="B55" s="15" t="s">
         <v>84</v>
@@ -3435,7 +3436,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="30" t="s">
         <v>124</v>
       </c>
@@ -3473,7 +3474,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="30"/>
       <c r="B57" s="17" t="s">
         <v>125</v>
@@ -3509,7 +3510,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="30"/>
       <c r="B58" s="17" t="s">
         <v>125</v>
@@ -3542,7 +3543,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="30"/>
       <c r="B59" s="17" t="s">
         <v>125</v>
@@ -3575,7 +3576,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="30"/>
       <c r="B60" s="17" t="s">
         <v>125</v>
@@ -3611,7 +3612,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="30"/>
       <c r="B61" s="17" t="s">
         <v>125</v>
@@ -3647,7 +3648,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="30"/>
       <c r="B62" s="17" t="s">
         <v>125</v>
@@ -3683,7 +3684,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="30"/>
       <c r="B63" s="17" t="s">
         <v>125</v>
@@ -3713,7 +3714,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="30"/>
       <c r="B64" s="17" t="s">
         <v>125</v>
@@ -3746,7 +3747,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="30"/>
       <c r="B65" s="17" t="s">
         <v>125</v>
@@ -3782,7 +3783,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="30"/>
       <c r="B66" s="17" t="s">
         <v>125</v>
@@ -3818,7 +3819,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="30"/>
       <c r="B67" s="17" t="s">
         <v>125</v>
@@ -3851,7 +3852,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="30"/>
       <c r="B68" s="17" t="s">
         <v>125</v>
@@ -3884,7 +3885,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="30"/>
       <c r="B69" s="17" t="s">
         <v>125</v>
@@ -3920,7 +3921,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="30"/>
       <c r="B70" s="17" t="s">
         <v>125</v>
@@ -3953,7 +3954,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="30"/>
       <c r="B71" s="18" t="s">
         <v>158</v>
@@ -3992,7 +3993,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="30"/>
       <c r="B72" s="18" t="s">
         <v>158</v>
@@ -4031,7 +4032,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="73" spans="1:13" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="30"/>
       <c r="B73" s="18" t="s">
         <v>158</v>
@@ -4067,7 +4068,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="74" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="30"/>
       <c r="B74" s="18" t="s">
         <v>158</v>
@@ -4101,7 +4102,7 @@
       </c>
       <c r="L74" s="14"/>
     </row>
-    <row r="75" spans="1:13" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="30"/>
       <c r="B75" s="18" t="s">
         <v>158</v>
@@ -4137,7 +4138,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="76" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="30"/>
       <c r="B76" s="18" t="s">
         <v>158</v>
@@ -4171,7 +4172,7 @@
       </c>
       <c r="L76" s="14"/>
     </row>
-    <row r="77" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="33" t="s">
         <v>178</v>
       </c>
@@ -4212,7 +4213,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="33"/>
       <c r="B78" s="15" t="s">
         <v>84</v>
@@ -4251,7 +4252,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="33"/>
       <c r="B79" s="15" t="s">
         <v>84</v>
@@ -4284,7 +4285,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="33"/>
       <c r="B80" s="15" t="s">
         <v>84</v>
@@ -4320,7 +4321,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="33"/>
       <c r="B81" s="15" t="s">
         <v>84</v>
@@ -4359,7 +4360,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="33"/>
       <c r="B82" s="15" t="s">
         <v>84</v>
@@ -4398,7 +4399,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="33"/>
       <c r="B83" s="15" t="s">
         <v>84</v>
@@ -4437,7 +4438,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="33"/>
       <c r="B84" s="15" t="s">
         <v>84</v>
@@ -4476,7 +4477,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="33"/>
       <c r="B85" s="15" t="s">
         <v>84</v>
@@ -4515,7 +4516,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="33"/>
       <c r="B86" s="15" t="s">
         <v>84</v>
@@ -4554,7 +4555,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="33"/>
       <c r="B87" s="15" t="s">
         <v>84</v>
@@ -4593,7 +4594,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="33"/>
       <c r="B88" s="15" t="s">
         <v>84</v>
@@ -4632,7 +4633,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="33"/>
       <c r="B89" s="15" t="s">
         <v>84</v>
@@ -4668,7 +4669,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="33"/>
       <c r="B90" s="15" t="s">
         <v>84</v>
@@ -4704,7 +4705,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" ht="86.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="33"/>
       <c r="B91" s="15" t="s">
         <v>84</v>
@@ -4740,7 +4741,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" ht="86.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="33"/>
       <c r="B92" s="15" t="s">
         <v>84</v>
@@ -4773,7 +4774,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="33"/>
       <c r="B93" s="15" t="s">
         <v>84</v>
@@ -4809,7 +4810,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="29" t="s">
         <v>219</v>
       </c>
@@ -4847,7 +4848,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="29"/>
       <c r="B95" s="20" t="s">
         <v>220</v>
@@ -4883,7 +4884,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="29"/>
       <c r="B96" s="20" t="s">
         <v>220</v>
@@ -4919,7 +4920,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="29"/>
       <c r="B97" s="20" t="s">
         <v>220</v>
@@ -5598,7 +5599,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M97" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:M97" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="population"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="5">
     <mergeCell ref="A94:A97"/>
     <mergeCell ref="A56:A76"/>
